--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value876.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value876.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.217542111909637</v>
+        <v>1.487833380699158</v>
       </c>
       <c r="B1">
-        <v>2.550477424070425</v>
+        <v>3.064851522445679</v>
       </c>
       <c r="C1">
-        <v>3.624833733500233</v>
+        <v>2.440634250640869</v>
       </c>
       <c r="D1">
-        <v>2.965286862542891</v>
+        <v>2.301240682601929</v>
       </c>
       <c r="E1">
-        <v>1.126192318621581</v>
+        <v>1.971065998077393</v>
       </c>
     </row>
   </sheetData>
